--- a/HybridFramework/Files/Gmail.xlsx
+++ b/HybridFramework/Files/Gmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/HybridFramework/Files/Gmail.xlsx
+++ b/HybridFramework/Files/Gmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +222,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,6 +229,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +272,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -628,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,350 +670,350 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>20</v>
       </c>
     </row>
